--- a/InputData/elec/FPC/Flexibility Point Calculations.xlsx
+++ b/InputData/elec/FPC/Flexibility Point Calculations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-poland - WIP\InputData\elec\FPC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="24915" windowHeight="12075" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,12 +31,12 @@
     <sheet name="Target Max FP Used" sheetId="18" r:id="rId17"/>
     <sheet name="FPC-TMFoFPU" sheetId="17" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="293">
   <si>
     <t>Source:</t>
   </si>
@@ -951,11 +956,14 @@
   <si>
     <t>of flexibility points used.)</t>
   </si>
+  <si>
+    <t>&lt;-done via calibration in model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1342,12 +1350,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1384,13 +1395,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0560384202117195</c:v>
+                  <c:v>0.66556893048456633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3822955148109142</c:v>
+                  <c:v>0.87119268560500362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.848446793233596</c:v>
+                  <c:v>1.1649848449485967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,6 +1425,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58F0-4C98-99FE-A573CB9E1F68}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1433,13 +1449,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1361474701063279</c:v>
+                  <c:v>0.7160577135061158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.262436277241707</c:v>
+                  <c:v>0.79565131984518689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3609911962031296</c:v>
+                  <c:v>0.85776562435505144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,6 +1479,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58F0-4C98-99FE-A573CB9E1F68}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1585,7 +1606,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1661,19 +1682,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3822955148109142</c:v>
+                  <c:v>0.87119268560500362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.848446793233596</c:v>
+                  <c:v>1.1649848449485967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1361474701063279</c:v>
+                  <c:v>0.7160577135061158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.262436277241707</c:v>
+                  <c:v>0.79565131984518689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3609911962031296</c:v>
+                  <c:v>0.85776562435505144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,6 +1727,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB05-4984-8922-289010CD446B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1906,7 +1932,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1941,7 +1967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2152,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4724,7 +4750,7 @@
       </c>
       <c r="H2" s="73">
         <f>G2*'Transmission Connectivity'!$B$60</f>
-        <v>18442.510828436869</v>
+        <v>29262.18323595804</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4755,7 +4781,7 @@
       </c>
       <c r="H3" s="73">
         <f>G3*'Transmission Connectivity'!$B$60</f>
-        <v>18442.510828436869</v>
+        <v>29262.18323595804</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4786,7 +4812,7 @@
       </c>
       <c r="H4" s="73">
         <f>G4*'Transmission Connectivity'!$B$60</f>
-        <v>18442.510828436869</v>
+        <v>29262.18323595804</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4819,7 +4845,7 @@
       </c>
       <c r="H5" s="73">
         <f>G5*'Transmission Connectivity'!$B$60</f>
-        <v>20155.834169887185</v>
+        <v>31980.662407604123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4852,7 +4878,7 @@
       </c>
       <c r="H6" s="73">
         <f>G6*'Transmission Connectivity'!$B$60</f>
-        <v>22971.456478866407</v>
+        <v>36448.126555791612</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4885,7 +4911,7 @@
       </c>
       <c r="H7" s="73">
         <f>G7*'Transmission Connectivity'!$B$60</f>
-        <v>24247.034141045766</v>
+        <v>38472.047681804099</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4994,7 +5020,7 @@
       </c>
       <c r="B18" s="76">
         <f>C10/H2</f>
-        <v>1.0560384202117195</v>
+        <v>0.66556893048456633</v>
       </c>
       <c r="C18" s="78">
         <f>B10</f>
@@ -5007,7 +5033,7 @@
       </c>
       <c r="B19" s="76">
         <f t="shared" ref="B19:B23" si="1">C11/H3</f>
-        <v>1.3822955148109142</v>
+        <v>0.87119268560500362</v>
       </c>
       <c r="C19" s="78">
         <f t="shared" ref="C19:C23" si="2">B11</f>
@@ -5020,7 +5046,7 @@
       </c>
       <c r="B20" s="76">
         <f t="shared" si="1"/>
-        <v>1.848446793233596</v>
+        <v>1.1649848449485967</v>
       </c>
       <c r="C20" s="78">
         <f t="shared" si="2"/>
@@ -5033,7 +5059,7 @@
       </c>
       <c r="B21" s="76">
         <f t="shared" si="1"/>
-        <v>1.1361474701063279</v>
+        <v>0.7160577135061158</v>
       </c>
       <c r="C21" s="78">
         <f t="shared" si="2"/>
@@ -5046,7 +5072,7 @@
       </c>
       <c r="B22" s="76">
         <f t="shared" si="1"/>
-        <v>1.262436277241707</v>
+        <v>0.79565131984518689</v>
       </c>
       <c r="C22" s="78">
         <f t="shared" si="2"/>
@@ -5059,7 +5085,7 @@
       </c>
       <c r="B23" s="76">
         <f t="shared" si="1"/>
-        <v>1.3609911962031296</v>
+        <v>0.85776562435505144</v>
       </c>
       <c r="C23" s="78">
         <f t="shared" si="2"/>
@@ -5100,7 +5126,7 @@
       </c>
       <c r="B28" s="76">
         <f t="shared" ref="B28:C28" si="3">B19</f>
-        <v>1.3822955148109142</v>
+        <v>0.87119268560500362</v>
       </c>
       <c r="C28" s="76">
         <f t="shared" si="3"/>
@@ -5114,7 +5140,7 @@
       </c>
       <c r="B29" s="76">
         <f t="shared" si="4"/>
-        <v>1.848446793233596</v>
+        <v>1.1649848449485967</v>
       </c>
       <c r="C29" s="76">
         <f t="shared" si="4"/>
@@ -5128,7 +5154,7 @@
       </c>
       <c r="B30" s="76">
         <f t="shared" si="5"/>
-        <v>1.1361474701063279</v>
+        <v>0.7160577135061158</v>
       </c>
       <c r="C30" s="76">
         <f t="shared" si="5"/>
@@ -5142,7 +5168,7 @@
       </c>
       <c r="B31" s="76">
         <f t="shared" si="6"/>
-        <v>1.262436277241707</v>
+        <v>0.79565131984518689</v>
       </c>
       <c r="C31" s="76">
         <f t="shared" si="6"/>
@@ -5156,7 +5182,7 @@
       </c>
       <c r="B32" s="76">
         <f t="shared" si="7"/>
-        <v>1.3609911962031296</v>
+        <v>0.85776562435505144</v>
       </c>
       <c r="C32" s="76">
         <f t="shared" si="7"/>
@@ -5367,7 +5393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="A1:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5498,7 +5526,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5664,7 +5694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5913,27 +5945,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -5942,7 +5974,7 @@
         <v>5.9999999999999991</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -5951,7 +5983,7 @@
         <v>5.9999999999999991</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -5960,7 +5992,7 @@
         <v>1.2847222222222221</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -5969,13 +6001,15 @@
         <v>1845826.3888888885</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="14">
-        <f>B39/B58</f>
-        <v>0.18907520344320336</v>
+        <v>0.3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5991,7 +6025,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6006,7 +6042,7 @@
       </c>
       <c r="B2" s="15">
         <f>'Transmission Connectivity'!B60</f>
-        <v>0.18907520344320336</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
